--- a/Analysis/server0s5p/client0.1s/p2pr600d0.2.xlsx
+++ b/Analysis/server0s5p/client0.1s/p2pr600d0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each pair of devices</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -2394,11 +2397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89526272"/>
-        <c:axId val="89527808"/>
+        <c:axId val="114487680"/>
+        <c:axId val="114489216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89526272"/>
+        <c:axId val="114487680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89527808"/>
+        <c:crossAx val="114489216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2416,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89527808"/>
+        <c:axId val="114489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89526272"/>
+        <c:crossAx val="114487680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2773,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:UD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:XFD102"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27977,6 +27980,13 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1043.0212895377128</v>
+      </c>
     </row>
     <row r="83" spans="1:550" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -49936,7 +49946,7 @@
         <v>549</v>
       </c>
       <c r="BH97">
-        <f t="shared" ref="BH97:CS97" si="2024">FREQUENCY($B88:$VX88, BH$96)</f>
+        <f t="shared" ref="BH97:CL97" si="2024">FREQUENCY($B88:$VX88, BH$96)</f>
         <v>549</v>
       </c>
       <c r="BI97">
@@ -50293,7 +50303,7 @@
         <v>546</v>
       </c>
       <c r="BH98">
-        <f t="shared" ref="BH98:CS98" si="2027">FREQUENCY($B89:$VX89, BH$96)</f>
+        <f t="shared" ref="BH98:CL98" si="2027">FREQUENCY($B89:$VX89, BH$96)</f>
         <v>546</v>
       </c>
       <c r="BI98">
@@ -50650,7 +50660,7 @@
         <v>544</v>
       </c>
       <c r="BH99">
-        <f t="shared" ref="BH99:CS99" si="2031">FREQUENCY($B90:$VX90, BH$96)</f>
+        <f t="shared" ref="BH99:CL99" si="2031">FREQUENCY($B90:$VX90, BH$96)</f>
         <v>544</v>
       </c>
       <c r="BI99">
@@ -51007,7 +51017,7 @@
         <v>544</v>
       </c>
       <c r="BH100">
-        <f t="shared" ref="BH100:CS100" si="2034">FREQUENCY($B91:$VX91, BH$96)</f>
+        <f t="shared" ref="BH100:CL100" si="2034">FREQUENCY($B91:$VX91, BH$96)</f>
         <v>545</v>
       </c>
       <c r="BI100">
@@ -51364,7 +51374,7 @@
         <v>540</v>
       </c>
       <c r="BH101">
-        <f t="shared" ref="BH101:CS101" si="2037">FREQUENCY($B92:$VX92, BH$96)</f>
+        <f t="shared" ref="BH101:CL101" si="2037">FREQUENCY($B92:$VX92, BH$96)</f>
         <v>540</v>
       </c>
       <c r="BI101">
@@ -51721,7 +51731,7 @@
         <v>547</v>
       </c>
       <c r="BH102">
-        <f t="shared" ref="BH102:CS102" si="2040">FREQUENCY($B93:$VX93, BH$96)</f>
+        <f t="shared" ref="BH102:CL102" si="2040">FREQUENCY($B93:$VX93, BH$96)</f>
         <v>547</v>
       </c>
       <c r="BI102">
